--- a/DOM_Banner/output/dept_banner/Swati Vasireddy_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Swati Vasireddy_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Geisinger Medical Center, Danville, PA, USA; Geisinger Medical Center, Danville, PA, USA; Geisinger Medical Center, Danville, PA, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4323037144</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>RAPIDLY-OCCURRING CARDIAC TAMPONADE DUE TO IMMUNE CHECKPOINT INHIBITOR USE IN A PATIENT WITH MESOTHELIOMA</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-03-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Journal of the American College of Cardiology</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0735-1097(23)04035-4</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0735-1097(23)04035-4</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -524,80 +534,85 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Taesung Kwon, Caroline Dillon, Madhuri Duggirala, David R. Berk, Thomas Barbour, Swati Vasireddy, Bridget Yablonski, Mark A Shelly</t>
+          <t>Muftah Mahmud, Swati Vasireddy, Krisstina Gowin, Akshay Amaraneni</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4389029798</t>
+          <t>Department of Medicine, Midwestern University Internal Medicine Residency Consortium, Cottonwood, AZ 86326, USA; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ 85701, USA; Division of Hematology and Oncology, Department of Medicine, University of Arizona Cancer Center, Tucson, AZ 85701, USA; Division of Hematology and Oncology, Department of Medicine, University of Arizona Cancer Center, Tucson, AZ 85701, USA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1203. Impact of Antimicrobial Stewardship Interventions on Hospital-Onset &lt;i&gt;Clostridioides difficile&lt;/i&gt; Infections</t>
+          <t>https://openalex.org/W4389623442</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
+          <t>Myeloproliferative Neoplasms: Contemporary Review and Molecular Landscape</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Open Forum Infectious Diseases</t>
+          <t>2023-12-12</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Oxford University Press</t>
+          <t>International Journal of Molecular Sciences</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/ofid/ofad500.1043</t>
+          <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>https://doi.org/10.3390/ijms242417383</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/ofid/ofad500.1043</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/38139212</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3390/ijms242417383</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -606,80 +621,85 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Muftah Mahmud, Swati Vasireddy, Krisstina Gowin, Akshay Amaraneni</t>
+          <t>Taesung Kwon, Caroline Dillon, Madhuri Duggirala, David R. Berk, Thomas Barbour, Swati Vasireddy, Bridget Yablonski, Mark A Shelly</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4389623442</t>
+          <t>Geisinger , Danville, Pennsylvania; Geisinger Medical Center , Danville, Pennsylvania; Geisinger , Danville, Pennsylvania; Geisinger Medical Center , Danville, Pennsylvania; Geisinger Medical Center , Danville, Pennsylvania; Geisinger Medical Center , Danville, Pennsylvania; Geisinger , Danville, Pennsylvania; Geisinger Health System , Danville, PA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Myeloproliferative Neoplasms: Contemporary Review and Molecular Landscape</t>
+          <t>https://openalex.org/W4389029798</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023-12-12</t>
+          <t>1203. Impact of Antimicrobial Stewardship Interventions on Hospital-Onset &lt;i&gt;Clostridioides difficile&lt;/i&gt; Infections</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>International Journal of Molecular Sciences</t>
+          <t>2023-11-27</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Multidisciplinary Digital Publishing Institute</t>
+          <t>Open Forum Infectious Diseases</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/ijms242417383</t>
+          <t>Oxford University Press</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1093/ofid/ofad500.1043</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/38139212</t>
-        </is>
-      </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/ijms242417383</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1093/ofid/ofad500.1043</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
